--- a/biology/Botanique/Forêt_de_L'Isle-Adam/Forêt_de_L'Isle-Adam.xlsx
+++ b/biology/Botanique/Forêt_de_L'Isle-Adam/Forêt_de_L'Isle-Adam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_L%27Isle-Adam</t>
+          <t>Forêt_de_L'Isle-Adam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de L'Isle-Adam est un massif forestier de 1 548 hectares situé dans le Val-d'Oise, à 25 km au nord de Paris. Elle constitue avec les massifs de Montmorency et de Carnelle l'un des trois principaux massifs forestiers domaniaux du Val-d'Oise.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_L%27Isle-Adam</t>
+          <t>Forêt_de_L'Isle-Adam</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Géographie physique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt est située sur une butte-témoin constituée de 4 plateaux inclinés de la plaine de France au sud-est à la vallée de l'Oise au nord-ouest et connaît des altitudes extrêmes variant de 25 à 195 m.
 À noter qu'on n'y trouve pas de cours d'eau, mais de nombreuses mares et au moins un étang.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_L%27Isle-Adam</t>
+          <t>Forêt_de_L'Isle-Adam</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Géographie administrative</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La forêt de L'Isle-Adam s'étend sur 9 communes du Val-d'Oise :
 L'Isle-Adam
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_L%27Isle-Adam</t>
+          <t>Forêt_de_L'Isle-Adam</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Faune et flore</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt est composée majoritairement de chênes (60 % du peuplement), ainsi que de châtaigniers, frênes, charmes, hêtres, tilleuls…
 La présence des résineux reste anecdotique (moins de 2 %).
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_L%27Isle-Adam</t>
+          <t>Forêt_de_L'Isle-Adam</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Géologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme sa voisine la forêt de Montmorency, la forêt de L'Isle-Adam fut longtemps exploitée pour son gypse et sa pierre calcaire. Toute activité a cessé depuis longtemps, néanmoins il en reste de nombreuses traces. Certaines carrières ont été transformées en champignonnières; seule une reste en activité à Méry-sur-Oise.
 L'exploitation souterraine du gypse a laissé plusieurs fontis à travers le massif.
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_L%27Isle-Adam</t>
+          <t>Forêt_de_L'Isle-Adam</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,7 +670,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le massif semble avoir toujours été connu sous ce nom.
 Son territoire est occupé dès la préhistoire, comme l'atteste l'existence de la Pierre-Plate (allée couverte).
@@ -660,7 +682,7 @@
 Le  peintre paysagiste Théodore Rousseau s'inspire de la forêt en 1846 lors d'un séjour chez Jules Dupré à L'Isle-Adam. (une avenue, forêt de L'Isle-Adam; Paris - Musée d'Orsay).
 La chasse à courre y est interdite par décret en 1936.
 La forêt a souffert de la construction dans les années 1980 de la N184, voie express d'évitement de la vallée de l'Oise, qui la divise maintenant en deux massifs distincts. Elle est également traversée par deux voies routières moins importantes, la route départementale 922 à hauteur du bois de Cassan et la route départementale 64 (avenue de Paris).
-Le 26 novembre 2010, le conseil général vote à l'unanimité la demande de classement en forêt de protection, ainsi que celle des massifs voisins de Carnelle et de Montmorency, le département demeurant le seul de la région ne possédant aucun massif classé forêt de protection[4].
+Le 26 novembre 2010, le conseil général vote à l'unanimité la demande de classement en forêt de protection, ainsi que celle des massifs voisins de Carnelle et de Montmorency, le département demeurant le seul de la région ne possédant aucun massif classé forêt de protection.
 </t>
         </is>
       </c>
@@ -671,7 +693,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_L%27Isle-Adam</t>
+          <t>Forêt_de_L'Isle-Adam</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -691,20 +713,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Arbres remarquables
-Le gros chêne : cet arbre vieux de 550 ans et de 10 m de circonférence se dresse parcelle 30 près du carrefour du Pavillon de Paris.
-Tilleul : parcelle 50, face au grillage du domaine des Bonshommes, cet arbre remarquable mesurait 25 m de hauteur pour une circonférence de 7,30 m. Il était âgé de 250 ans environ, quand il a été frappé par la foudre et mis à terre.
-Patrimoine préhistorique
-La Pierre-Plate : Ce beau monument mégalithique a été fouillé à partir de 1926 et restauré en 1971. Il mesure plus de 12 m de long et plus de 2 m de large, et se compose de trois tables de couverture et d'une chambre précédée d'un vestibule accessible par une dalle perforée. L'ensemble est daté de 1 960 ans av. J.-C. Les restes de plus de cent individus en furent exhumés. Les objets ont été confiés au musée départemental de Préhistoire d'Île-de-France à Nemours (sur la commune de Presles, parcelle 12, séparée du reste de la forêt par l'A 16).
-Patrimoine architectural
-La croix Saint-Antoine : Croix romane pattée, symbole du Vexin Français, elle est située au croisement du chemin des Folles Entreprises et de la route forestière des Louveteaux, à l'entrée ouest de la forêt.
-Le château des Forgets : Il a été construit en 1893 pour Geoges Manchez, rédacteur au journal Le Temps. Il servit de refuge à des résistants pendant la seconde guerre mondiale, ce qui valut à son propriétaire, Géo Grandjean, d'être fusillé en 1941. Peu avant la libération de L'Isle-Adam, le 23 août 1944, quatre jeunes résistants furent également fusillés à l'entrée du domaine (route des Louvetaux, à l'est de L'Isle-Adam).
-La table de Cassan : Située dans une clairière du bois de Cassan d'où partent seize routes, l'étoile de Conti, cette table de vénerie donnait la possibilité aux cavaliers de descendre de leur monture sans se faire débotter par leurs valets. Sa présence est attestée dès 1766. Elle fut déplacée provisoirement en 1944 pour la protéger des bombardements alliés (sur la RD 922 près du centre commercial).
-Le Saut-de-Loup : À proximité des « coûtumes de Montsoult », la route Tournante du Saut-de-Loup de Chauvry longe les vestiges du "saut-de-loup", ensemble formé d'une butte de terre soutenue par un mur et entouré d'un fossé, qui avait pour but, avec la muraille d'enceinte 25 km, d'isoler le massif et de protéger son gibier qui ne pouvait s'en échapper, et empêchait le loup d'y pénétrer.
-Lieux particuliers de la forêt
-Le carrefour du Poteau de la Tour : Non loin du point culminant de la forêt (195 m), il rappelle l'existence d'une tour de trois étages, dite tour de Nerville, bâtie pour les princes de Conti afin que leurs invités puissent suivre les chasses (au sud-ouest de Nerville-la-Forêt, près du village).
-La maison forestière du Bois-Carreau : Belle vue sur la forêt de Carnelle (sur la RD 64 à mi-chemin entre Nerville-la-Forêt et Maffliers, en lisière de forêt).
-Les coutumes de Montsoult : Cette enclave forestière privée au cœur du massif domanial est utilisée par un centre équestre. (au sud de la RD 9, à l'extrémité ouest du territoire communal de Montsoult).</t>
+          <t>Arbres remarquables</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le gros chêne : cet arbre vieux de 550 ans et de 10 m de circonférence se dresse parcelle 30 près du carrefour du Pavillon de Paris.
+Tilleul : parcelle 50, face au grillage du domaine des Bonshommes, cet arbre remarquable mesurait 25 m de hauteur pour une circonférence de 7,30 m. Il était âgé de 250 ans environ, quand il a été frappé par la foudre et mis à terre.</t>
         </is>
       </c>
     </row>
@@ -714,7 +730,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_L%27Isle-Adam</t>
+          <t>Forêt_de_L'Isle-Adam</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -729,10 +745,125 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Lieux remarquables</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Patrimoine préhistorique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La Pierre-Plate : Ce beau monument mégalithique a été fouillé à partir de 1926 et restauré en 1971. Il mesure plus de 12 m de long et plus de 2 m de large, et se compose de trois tables de couverture et d'une chambre précédée d'un vestibule accessible par une dalle perforée. L'ensemble est daté de 1 960 ans av. J.-C. Les restes de plus de cent individus en furent exhumés. Les objets ont été confiés au musée départemental de Préhistoire d'Île-de-France à Nemours (sur la commune de Presles, parcelle 12, séparée du reste de la forêt par l'A 16).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forêt_de_L'Isle-Adam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_L%27Isle-Adam</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lieux remarquables</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Patrimoine architectural</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La croix Saint-Antoine : Croix romane pattée, symbole du Vexin Français, elle est située au croisement du chemin des Folles Entreprises et de la route forestière des Louveteaux, à l'entrée ouest de la forêt.
+Le château des Forgets : Il a été construit en 1893 pour Geoges Manchez, rédacteur au journal Le Temps. Il servit de refuge à des résistants pendant la seconde guerre mondiale, ce qui valut à son propriétaire, Géo Grandjean, d'être fusillé en 1941. Peu avant la libération de L'Isle-Adam, le 23 août 1944, quatre jeunes résistants furent également fusillés à l'entrée du domaine (route des Louvetaux, à l'est de L'Isle-Adam).
+La table de Cassan : Située dans une clairière du bois de Cassan d'où partent seize routes, l'étoile de Conti, cette table de vénerie donnait la possibilité aux cavaliers de descendre de leur monture sans se faire débotter par leurs valets. Sa présence est attestée dès 1766. Elle fut déplacée provisoirement en 1944 pour la protéger des bombardements alliés (sur la RD 922 près du centre commercial).
+Le Saut-de-Loup : À proximité des « coûtumes de Montsoult », la route Tournante du Saut-de-Loup de Chauvry longe les vestiges du "saut-de-loup", ensemble formé d'une butte de terre soutenue par un mur et entouré d'un fossé, qui avait pour but, avec la muraille d'enceinte 25 km, d'isoler le massif et de protéger son gibier qui ne pouvait s'en échapper, et empêchait le loup d'y pénétrer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Forêt_de_L'Isle-Adam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_L%27Isle-Adam</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lieux remarquables</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Lieux particuliers de la forêt</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le carrefour du Poteau de la Tour : Non loin du point culminant de la forêt (195 m), il rappelle l'existence d'une tour de trois étages, dite tour de Nerville, bâtie pour les princes de Conti afin que leurs invités puissent suivre les chasses (au sud-ouest de Nerville-la-Forêt, près du village).
+La maison forestière du Bois-Carreau : Belle vue sur la forêt de Carnelle (sur la RD 64 à mi-chemin entre Nerville-la-Forêt et Maffliers, en lisière de forêt).
+Les coutumes de Montsoult : Cette enclave forestière privée au cœur du massif domanial est utilisée par un centre équestre. (au sud de la RD 9, à l'extrémité ouest du territoire communal de Montsoult).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Forêt_de_L'Isle-Adam</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_L%27Isle-Adam</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Aménagement</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Deux pistes cyclables très empruntées traversent la forêt :
 une de 2,5 km le long de la D64 ;
